--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H2">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I2">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J2">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.30157483041766</v>
+        <v>1.467406</v>
       </c>
       <c r="N2">
-        <v>1.30157483041766</v>
+        <v>4.402218</v>
       </c>
       <c r="O2">
-        <v>0.8212598866281821</v>
+        <v>0.8178057326420413</v>
       </c>
       <c r="P2">
-        <v>0.8212598866281821</v>
+        <v>0.8654277364307374</v>
       </c>
       <c r="Q2">
-        <v>2.457343886843504</v>
+        <v>3.921297205454667</v>
       </c>
       <c r="R2">
-        <v>2.457343886843504</v>
+        <v>35.291674849092</v>
       </c>
       <c r="S2">
-        <v>0.1546930732880719</v>
+        <v>0.1749559117238328</v>
       </c>
       <c r="T2">
-        <v>0.1546930732880719</v>
+        <v>0.2284284272804118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H3">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I3">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J3">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.283276507885846</v>
+        <v>0.030706</v>
       </c>
       <c r="N3">
-        <v>0.283276507885846</v>
+        <v>0.09211800000000001</v>
       </c>
       <c r="O3">
-        <v>0.1787401133718179</v>
+        <v>0.01711288002536893</v>
       </c>
       <c r="P3">
-        <v>0.1787401133718179</v>
+        <v>0.01810938763698815</v>
       </c>
       <c r="Q3">
-        <v>0.5348196497594276</v>
+        <v>0.08205455885466667</v>
       </c>
       <c r="R3">
-        <v>0.5348196497594276</v>
+        <v>0.7384910296920001</v>
       </c>
       <c r="S3">
-        <v>0.03366760986082732</v>
+        <v>0.003661015578096322</v>
       </c>
       <c r="T3">
-        <v>0.03366760986082732</v>
+        <v>0.004779947259362662</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.5363846106917</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H4">
-        <v>1.5363846106917</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I4">
-        <v>0.1532827946918666</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J4">
-        <v>0.1532827946918666</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.30157483041766</v>
+        <v>0.296209</v>
       </c>
       <c r="N4">
-        <v>1.30157483041766</v>
+        <v>0.592418</v>
       </c>
       <c r="O4">
-        <v>0.8212598866281821</v>
+        <v>0.1650813873325899</v>
       </c>
       <c r="P4">
-        <v>0.8212598866281821</v>
+        <v>0.1164628759322743</v>
       </c>
       <c r="Q4">
-        <v>1.999719539117352</v>
+        <v>0.7915488446486667</v>
       </c>
       <c r="R4">
-        <v>1.999719539117352</v>
+        <v>4.749293067892</v>
       </c>
       <c r="S4">
-        <v>0.1258850105906933</v>
+        <v>0.03531641253736512</v>
       </c>
       <c r="T4">
-        <v>0.1258850105906933</v>
+        <v>0.0307402114190181</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H5">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I5">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J5">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.283276507885846</v>
+        <v>1.467406</v>
       </c>
       <c r="N5">
-        <v>0.283276507885846</v>
+        <v>4.402218</v>
       </c>
       <c r="O5">
-        <v>0.1787401133718179</v>
+        <v>0.8178057326420413</v>
       </c>
       <c r="P5">
-        <v>0.1787401133718179</v>
+        <v>0.8654277364307374</v>
       </c>
       <c r="Q5">
-        <v>0.4352216672862999</v>
+        <v>2.47344487954</v>
       </c>
       <c r="R5">
-        <v>0.4352216672862999</v>
+        <v>22.26100391586</v>
       </c>
       <c r="S5">
-        <v>0.02739778410117334</v>
+        <v>0.1103573081368595</v>
       </c>
       <c r="T5">
-        <v>0.02739778410117334</v>
+        <v>0.1440862791558281</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.59884125304004</v>
+        <v>1.68559</v>
       </c>
       <c r="H6">
-        <v>6.59884125304004</v>
+        <v>5.05677</v>
       </c>
       <c r="I6">
-        <v>0.658356522159234</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J6">
-        <v>0.658356522159234</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.30157483041766</v>
+        <v>0.030706</v>
       </c>
       <c r="N6">
-        <v>1.30157483041766</v>
+        <v>0.09211800000000001</v>
       </c>
       <c r="O6">
-        <v>0.8212598866281821</v>
+        <v>0.01711288002536893</v>
       </c>
       <c r="P6">
-        <v>0.8212598866281821</v>
+        <v>0.01810938763698815</v>
       </c>
       <c r="Q6">
-        <v>8.588885684878649</v>
+        <v>0.05175772654000001</v>
       </c>
       <c r="R6">
-        <v>8.588885684878649</v>
+        <v>0.46581953886</v>
       </c>
       <c r="S6">
-        <v>0.5406818027494168</v>
+        <v>0.00230926649042624</v>
       </c>
       <c r="T6">
-        <v>0.5406818027494168</v>
+        <v>0.003015057378638808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.68559</v>
+      </c>
+      <c r="H7">
+        <v>5.05677</v>
+      </c>
+      <c r="I7">
+        <v>0.1349431823867681</v>
+      </c>
+      <c r="J7">
+        <v>0.1664914042968852</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.296209</v>
+      </c>
+      <c r="N7">
+        <v>0.592418</v>
+      </c>
+      <c r="O7">
+        <v>0.1650813873325899</v>
+      </c>
+      <c r="P7">
+        <v>0.1164628759322743</v>
+      </c>
+      <c r="Q7">
+        <v>0.49928692831</v>
+      </c>
+      <c r="R7">
+        <v>2.99572156986</v>
+      </c>
+      <c r="S7">
+        <v>0.02227660775948238</v>
+      </c>
+      <c r="T7">
+        <v>0.01939006776241826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.5508483333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.652545</v>
+      </c>
+      <c r="I8">
+        <v>0.04409923356951998</v>
+      </c>
+      <c r="J8">
+        <v>0.05440914609796296</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.467406</v>
+      </c>
+      <c r="N8">
+        <v>4.402218</v>
+      </c>
+      <c r="O8">
+        <v>0.8178057326420413</v>
+      </c>
+      <c r="P8">
+        <v>0.8654277364307374</v>
+      </c>
+      <c r="Q8">
+        <v>0.8083181494233331</v>
+      </c>
+      <c r="R8">
+        <v>7.274863344809999</v>
+      </c>
+      <c r="S8">
+        <v>0.03606460601827379</v>
+      </c>
+      <c r="T8">
+        <v>0.04708718414868938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.5508483333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.652545</v>
+      </c>
+      <c r="I9">
+        <v>0.04409923356951998</v>
+      </c>
+      <c r="J9">
+        <v>0.05440914609796296</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.030706</v>
+      </c>
+      <c r="N9">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.01711288002536893</v>
+      </c>
+      <c r="P9">
+        <v>0.01810938763698815</v>
+      </c>
+      <c r="Q9">
+        <v>0.01691434892333333</v>
+      </c>
+      <c r="R9">
+        <v>0.15222914031</v>
+      </c>
+      <c r="S9">
+        <v>0.0007546648932859176</v>
+      </c>
+      <c r="T9">
+        <v>0.0009853163176855324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>6.59884125304004</v>
-      </c>
-      <c r="H7">
-        <v>6.59884125304004</v>
-      </c>
-      <c r="I7">
-        <v>0.658356522159234</v>
-      </c>
-      <c r="J7">
-        <v>0.658356522159234</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.283276507885846</v>
-      </c>
-      <c r="N7">
-        <v>0.283276507885846</v>
-      </c>
-      <c r="O7">
-        <v>0.1787401133718179</v>
-      </c>
-      <c r="P7">
-        <v>0.1787401133718179</v>
-      </c>
-      <c r="Q7">
-        <v>1.869296706254243</v>
-      </c>
-      <c r="R7">
-        <v>1.869296706254243</v>
-      </c>
-      <c r="S7">
-        <v>0.1176747194098172</v>
-      </c>
-      <c r="T7">
-        <v>0.1176747194098172</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.5508483333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.652545</v>
+      </c>
+      <c r="I10">
+        <v>0.04409923356951998</v>
+      </c>
+      <c r="J10">
+        <v>0.05440914609796296</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.296209</v>
+      </c>
+      <c r="N10">
+        <v>0.592418</v>
+      </c>
+      <c r="O10">
+        <v>0.1650813873325899</v>
+      </c>
+      <c r="P10">
+        <v>0.1164628759322743</v>
+      </c>
+      <c r="Q10">
+        <v>0.1631662339683333</v>
+      </c>
+      <c r="R10">
+        <v>0.97899740381</v>
+      </c>
+      <c r="S10">
+        <v>0.00727996265796028</v>
+      </c>
+      <c r="T10">
+        <v>0.006336645631588047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.481638</v>
+      </c>
+      <c r="H11">
+        <v>1.444914</v>
+      </c>
+      <c r="I11">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J11">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.467406</v>
+      </c>
+      <c r="N11">
+        <v>4.402218</v>
+      </c>
+      <c r="O11">
+        <v>0.8178057326420413</v>
+      </c>
+      <c r="P11">
+        <v>0.8654277364307374</v>
+      </c>
+      <c r="Q11">
+        <v>0.7067584910279998</v>
+      </c>
+      <c r="R11">
+        <v>6.360826419251999</v>
+      </c>
+      <c r="S11">
+        <v>0.03153333442677086</v>
+      </c>
+      <c r="T11">
+        <v>0.04117100084840011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.481638</v>
+      </c>
+      <c r="H12">
+        <v>1.444914</v>
+      </c>
+      <c r="I12">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J12">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.030706</v>
+      </c>
+      <c r="N12">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.01711288002536893</v>
+      </c>
+      <c r="P12">
+        <v>0.01810938763698815</v>
+      </c>
+      <c r="Q12">
+        <v>0.014789176428</v>
+      </c>
+      <c r="R12">
+        <v>0.133102587852</v>
+      </c>
+      <c r="S12">
+        <v>0.000659846400320311</v>
+      </c>
+      <c r="T12">
+        <v>0.0008615180475280693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.481638</v>
+      </c>
+      <c r="H13">
+        <v>1.444914</v>
+      </c>
+      <c r="I13">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J13">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.296209</v>
+      </c>
+      <c r="N13">
+        <v>0.592418</v>
+      </c>
+      <c r="O13">
+        <v>0.1650813873325899</v>
+      </c>
+      <c r="P13">
+        <v>0.1164628759322743</v>
+      </c>
+      <c r="Q13">
+        <v>0.142665510342</v>
+      </c>
+      <c r="R13">
+        <v>0.8559930620519999</v>
+      </c>
+      <c r="S13">
+        <v>0.006365285038509705</v>
+      </c>
+      <c r="T13">
+        <v>0.005540489358002602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.100768</v>
+      </c>
+      <c r="H14">
+        <v>14.201536</v>
+      </c>
+      <c r="I14">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J14">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.467406</v>
+      </c>
+      <c r="N14">
+        <v>4.402218</v>
+      </c>
+      <c r="O14">
+        <v>0.8178057326420413</v>
+      </c>
+      <c r="P14">
+        <v>0.8654277364307374</v>
+      </c>
+      <c r="Q14">
+        <v>10.419709567808</v>
+      </c>
+      <c r="R14">
+        <v>62.51825740684799</v>
+      </c>
+      <c r="S14">
+        <v>0.4648945723363043</v>
+      </c>
+      <c r="T14">
+        <v>0.404654844997408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.100768</v>
+      </c>
+      <c r="H15">
+        <v>14.201536</v>
+      </c>
+      <c r="I15">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J15">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.030706</v>
+      </c>
+      <c r="N15">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.01711288002536893</v>
+      </c>
+      <c r="P15">
+        <v>0.01810938763698815</v>
+      </c>
+      <c r="Q15">
+        <v>0.218036182208</v>
+      </c>
+      <c r="R15">
+        <v>1.308217093248</v>
+      </c>
+      <c r="S15">
+        <v>0.009728086663240142</v>
+      </c>
+      <c r="T15">
+        <v>0.008467548633773074</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.100768</v>
+      </c>
+      <c r="H16">
+        <v>14.201536</v>
+      </c>
+      <c r="I16">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J16">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.296209</v>
+      </c>
+      <c r="N16">
+        <v>0.592418</v>
+      </c>
+      <c r="O16">
+        <v>0.1650813873325899</v>
+      </c>
+      <c r="P16">
+        <v>0.1164628759322743</v>
+      </c>
+      <c r="Q16">
+        <v>2.103311388512</v>
+      </c>
+      <c r="R16">
+        <v>8.413245554048</v>
+      </c>
+      <c r="S16">
+        <v>0.09384311933927243</v>
+      </c>
+      <c r="T16">
+        <v>0.05445546176124728</v>
       </c>
     </row>
   </sheetData>
